--- a/Power Budget.xlsx
+++ b/Power Budget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0529062-47D6-4D00-9E2C-3774C7EEA21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A4EF93-C9E6-447D-AA36-629E4D88943B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25080" yWindow="-75" windowWidth="25440" windowHeight="15390" xr2:uid="{5B5CC1FE-CF39-462F-9941-552956E18F78}"/>
   </bookViews>
@@ -25,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DS2780</t>
   </si>
   <si>
-    <t>Current Draw</t>
-  </si>
-  <si>
     <t>Duty Cycle</t>
-  </si>
-  <si>
-    <t>Reps</t>
   </si>
   <si>
     <t>Per-Day Charge (Ah)</t>
@@ -51,10 +45,7 @@
     <t>Req'd Ah</t>
   </si>
   <si>
-    <t>PIC (LFINTOSC)</t>
-  </si>
-  <si>
-    <t>PIC (HFINTOSC)</t>
+    <t>PIC</t>
   </si>
   <si>
     <t>On-Time (s)</t>
@@ -62,11 +53,32 @@
   <si>
     <t>RockBlock</t>
   </si>
+  <si>
+    <t>On Current</t>
+  </si>
+  <si>
+    <t>Off Current</t>
+  </si>
+  <si>
+    <t>Reps/day</t>
+  </si>
+  <si>
+    <t>Avg Current</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,12 +88,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -96,9 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,7 +190,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -412,47 +432,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dPt>
-            <c:idx val="14"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:dPt>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="1.4035087719298074E-2"/>
-                  <c:y val="2.3703703703703703E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:dLblPos val="bestFit"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="1"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="1"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000002-2071-4A60-9FBF-C33E080D4C57}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
             <c:spPr>
               <a:solidFill>
                 <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -513,41 +493,74 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>DS2780</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>PIC (LFINTOSC)</c:v>
+                  <c:v>PIC</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>PIC (HFINTOSC)</c:v>
+                  <c:v>RockBlock</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>RockBlock</c:v>
+                  <c:v>GPS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>UI</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$16</c:f>
+              <c:f>Sheet1!$H$2:$H$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1.5599999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0629999999999996E-5</c:v>
+                  <c:v>8.1063000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.6999999999999996E-4</c:v>
+                  <c:v>1.0478000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>3.3900000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.3333333333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1184,15 +1197,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1518,170 +1531,305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB3A42F-D6A4-4E51-A349-B7756ADD3B4B}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
         <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>6.4999999999999994E-5</v>
       </c>
-      <c r="E2" s="1">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1">
         <v>1</v>
       </c>
-      <c r="F2">
-        <f>B2*E2*24</f>
+      <c r="G2" s="2">
+        <f>(F2*B2)+((1-F2)*C2)</f>
+        <v>6.4999999999999994E-5</v>
+      </c>
+      <c r="H2">
+        <f>G2*24</f>
         <v>1.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.7E-6</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <f>(D3*E3)/(60*60*24)</f>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" ref="G3:G10" si="0">(F3*B3)+((1-F3)*C3)</f>
+        <v>3.377625E-5</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H15" si="1">G3*24</f>
+        <v>8.1063000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1.7E-6</v>
-      </c>
-      <c r="E3" s="1">
-        <f>1-E4</f>
-        <v>0.99583333333333335</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F5" si="0">B3*E3*24</f>
-        <v>4.0629999999999996E-5</v>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="D4">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <f>(D4*E4)/(60*60*24)</f>
+        <v>4.1666666666666666E-3</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" si="0"/>
+        <v>4.3658333333333337E-4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>1.0478000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="C4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="D5">
         <v>60</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="E4" s="1">
-        <f>(C4*D4)/(60*60*24)</f>
+      <c r="F5" s="1">
+        <f t="shared" ref="F5:F12" si="2">(D5*E5)/(60*60*24)</f>
         <v>4.1666666666666666E-3</v>
       </c>
-      <c r="F4">
+      <c r="G5" s="2">
         <f t="shared" si="0"/>
-        <v>7.6999999999999996E-4</v>
+        <v>1.4125000000000002E-4</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>3.3900000000000007E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>0.1</v>
-      </c>
-      <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1">
-        <f>(C5*D5)/(60*60*24)</f>
-        <v>4.1666666666666666E-3</v>
-      </c>
-      <c r="F5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7777777777777779E-3</v>
+      </c>
+      <c r="G6" s="2">
         <f t="shared" si="0"/>
-        <v>0.01</v>
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F9" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f>SUM(H2:H15)</f>
+        <v>4.9571963333333337E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17">
-        <f>SUM(F2:F16)</f>
-        <v>1.2370630000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F19">
-        <f>F17*A19</f>
-        <v>0.37111890000000003</v>
+      <c r="H18">
+        <f>H16*A18</f>
+        <v>1.4871589000000001</v>
       </c>
     </row>
   </sheetData>
